--- a/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-mbr-05)商品参照・カート登録.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-mbr-05)商品参照・カート登録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B331F-D2C3-42D8-8A47-79E5C5B39207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D68B42F-E2F8-465B-88CD-E43CDC17E15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="555" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="495" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -255,6 +255,23 @@
     <t>商品参照（会員）・カート登録</t>
     <rPh sb="12" eb="14">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：商品在庫リストを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -685,6 +702,286 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="フローチャート: 磁気ディスク 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB45AE3-1933-4E00-970C-60E01E0B7E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="9344025"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="フローチャート: 磁気ディスク 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95798F85-CB2C-470B-8601-A963033B5B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="1971675"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -803,7 +1100,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5274"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5276"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1746,14 +2043,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2000250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1768,7 +2065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601075" y="2295525"/>
+          <a:off x="8601075" y="2914650"/>
           <a:ext cx="2000250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1893,13 +2190,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2124075</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1917,8 +2214,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7858125" y="1800226"/>
-          <a:ext cx="742950" cy="923925"/>
+          <a:off x="7858125" y="1800225"/>
+          <a:ext cx="742950" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1950,14 +2247,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2381249</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1972,7 +2269,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10982324" y="2324100"/>
+          <a:off x="10982324" y="2943225"/>
           <a:ext cx="1381126" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -2666,14 +2963,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:colOff>2009775</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2690,7 +2987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="7029450"/>
+          <a:off x="8610600" y="8743950"/>
           <a:ext cx="2000250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2818,8 +3115,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2839,8 +3136,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7915275" y="7458075"/>
-          <a:ext cx="619125" cy="0"/>
+          <a:off x="7915275" y="9172575"/>
+          <a:ext cx="695325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6021,7 +6318,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -6075,9 +6372,15 @@
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="9">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8">
@@ -6510,7 +6813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
